--- a/data/public/allSubjectsCollate2.xlsx
+++ b/data/public/allSubjectsCollate2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/raj925.github.io/data/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C21BDAFC-3FE0-384D-8175-A1EB8D158980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DAF3F6-C321-9C46-B6AC-67C43A1F1748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="460" windowWidth="37680" windowHeight="19560" activeTab="2"/>
+    <workbookView xWindow="13100" yWindow="1280" windowWidth="27520" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allSubjects" sheetId="1" r:id="rId1"/>
-    <sheet name="Confidence Difference" sheetId="9" r:id="rId2"/>
-    <sheet name="Drivers of Choice" sheetId="8" r:id="rId3"/>
-    <sheet name="Quantiles" sheetId="7" r:id="rId4"/>
-    <sheet name="Resolution and Accuracy" sheetId="6" r:id="rId5"/>
-    <sheet name="Demographics" sheetId="5" r:id="rId6"/>
-    <sheet name="CHOICE" sheetId="2" r:id="rId7"/>
-    <sheet name="CHOICE (2)" sheetId="3" r:id="rId8"/>
+    <sheet name="CHOICE" sheetId="2" r:id="rId2"/>
+    <sheet name="CHOICE (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Demographics" sheetId="5" r:id="rId4"/>
+    <sheet name="Confidence Difference" sheetId="9" r:id="rId5"/>
+    <sheet name="Drivers of Choice" sheetId="8" r:id="rId6"/>
+    <sheet name="Quantiles" sheetId="7" r:id="rId7"/>
+    <sheet name="Resolution and Accuracy" sheetId="6" r:id="rId8"/>
     <sheet name="Sway" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Demographics!$C$2:$C$37</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Demographics!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Demographics!$C$2:$C$37</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Demographics!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Demographics!$C$2:$C$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="93">
   <si>
     <t>Participant ID</t>
   </si>
@@ -297,11 +298,35 @@
   <si>
     <t>Female</t>
   </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Quant1</t>
+  </si>
+  <si>
+    <t>Quant2</t>
+  </si>
+  <si>
+    <t>Quant3</t>
+  </si>
+  <si>
+    <t>Quant4</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1876,12 +1901,753 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Advisor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Choice Quantiles</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Quantiles!$P$3:$P$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.3645900419811303E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1601137869785761E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1024968959002505E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.5257132102941083E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Quantiles!$P$3:$P$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>8.3645900419811303E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.1601137869785761E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1024968959002505E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.5257132102941083E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Quantiles!$N$9:$N$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Quant1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Quant2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quant3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quant4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Quantiles!$O$9:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.52034482758620704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52203448275862063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47920689655172416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50786206896551733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-706A-B54F-9237-9BE1F682D290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="655387552"/>
+        <c:axId val="655389184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="655387552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655389184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655389184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655387552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accuracy Quantiles</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Quantiles!$P$15:$P$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.9501859330325942E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2084001892983013E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7132876138655667E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2344363174796286E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Quantiles!$P$15:$P$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>9.9501859330325942E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2084001892983013E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.7132876138655667E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.2344363174796286E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Quantiles!$N$15:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Quant1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Quant2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quant3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quant4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Quantiles!$O$15:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.50758620689655176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49079310344827587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46789655172413797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5034827586206897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBCB-8A49-85A9-563D9CDED73A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="926141024"/>
+        <c:axId val="926213536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="926141024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926213536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="926213536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="926141024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1945,7 +2711,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2163,7 +2929,1103 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2679,7 +4541,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3195,8 +5057,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3207,7 +5069,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3230,7 +5092,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3253,7 +5115,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3261,11 +5123,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3290,46 +5152,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3344,8 +5196,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -3353,12 +5207,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -3368,13 +5219,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3393,16 +5244,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -3473,6 +5326,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3504,8 +5363,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3560,7 +5419,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3588,30 +5447,22 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3627,7 +5478,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3643,7 +5494,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3657,7 +5508,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -3690,7 +5541,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -3699,12 +5550,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3715,7 +5572,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3738,7 +5595,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -3761,7 +5618,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3769,11 +5626,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3798,46 +5655,36 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3852,8 +5699,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -3861,12 +5710,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -3876,13 +5722,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3901,16 +5747,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -3981,6 +5829,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4012,8 +5866,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4068,7 +5922,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -4096,30 +5950,22 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4135,7 +5981,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4151,7 +5997,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4165,7 +6011,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -4198,7 +6044,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -4207,88 +6053,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C40D68A-862B-0143-8B24-EFE76F11DC53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FD5F1C-0CF8-8F42-8A90-2DE700B289D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4444,6 +6219,160 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C40D68A-862B-0143-8B24-EFE76F11DC53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FD5F1C-0CF8-8F42-8A90-2DE700B289D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A256966-ABAB-AE45-8175-CE0FB42A9CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D30033-CC66-FD4E-BD12-7911C5F445B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4745,11 +6674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AD1" activeCellId="2" sqref="AF1:AH37 AM1:AM37 AD1:AD37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9166,17 +11095,1111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="B2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="B3">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(A2:A37)</f>
+        <v>0.47455555555555545</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.STDEV.S(A2:A121)/SQRT(COUNT(A2:A121))</f>
+        <v>3.7836226959710735E-2</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.STDEV.S(A2:A121)</f>
+        <v>0.22701736175826442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="B4">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(B2:B121)</f>
+        <v>0.52541666666666675</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.STDEV.S(B2:B121)/SQRT(COUNT(B2:B121))</f>
+        <v>3.7836498189421475E-2</v>
+      </c>
+      <c r="J4">
+        <f>_xlfn.STDEV.S(B2:B121)</f>
+        <v>0.22701898913652885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.438</v>
+      </c>
+      <c r="B8">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>0.433</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="B10">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="B12">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.442</v>
+      </c>
+      <c r="B13">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.371</v>
+      </c>
+      <c r="B15">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B17">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="B18">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="B21">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.9</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="B23">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="B25">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="B26">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="B27">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="B28">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="B29">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="B30">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="B31">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.45</v>
+      </c>
+      <c r="B33">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="B36">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="B37">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="B2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="B3">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(A2:A30)</f>
+        <v>0.48103448275862076</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.STDEV.S(A2:A114)/SQRT(COUNT(A2:A114))</f>
+        <v>4.2202318322803752E-2</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.STDEV.S(A2:A114)</f>
+        <v>0.22726643941145042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="B4">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(B2:B114)</f>
+        <v>0.51896551724137929</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.STDEV.S(B2:B114)/SQRT(COUNT(B2:B114))</f>
+        <v>4.2202318322803856E-2</v>
+      </c>
+      <c r="J4">
+        <f>_xlfn.STDEV.S(B2:B114)</f>
+        <v>0.22726643941145097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.438</v>
+      </c>
+      <c r="B7">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="B8">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="B10">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.442</v>
+      </c>
+      <c r="B11">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.371</v>
+      </c>
+      <c r="B13">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B14">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="B15">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="B16">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="B17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.9</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="B19">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="B20">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="B21">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="B22">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="B23">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="B24">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="B25">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="B26">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.45</v>
+      </c>
+      <c r="B27">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="B29">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="B30">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(A2:A37,"m")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(A2:A37,"f")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4">
+        <v>41</v>
+      </c>
+      <c r="C27" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="4">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4">
+        <v>52</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="6">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="4">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6">
+        <v>25</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -9604,11 +12627,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
@@ -10220,17 +13243,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -10268,7 +13291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0.53600000000000003</v>
       </c>
@@ -10305,8 +13328,20 @@
       <c r="L2" s="4">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>0.50600000000000001</v>
       </c>
@@ -10343,8 +13378,23 @@
       <c r="L3" s="4">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(I2:I121)</f>
+        <v>0.19710344827586204</v>
+      </c>
+      <c r="P3">
+        <f>_xlfn.STDEV.S(I2:I30)/SQRT(COUNT(I2:I30))</f>
+        <v>8.3645900419811303E-3</v>
+      </c>
+      <c r="Q3">
+        <f>_xlfn.STDEV.S(I2:I121)</f>
+        <v>4.5044695920184508E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0.56899999999999995</v>
       </c>
@@ -10381,8 +13431,23 @@
       <c r="L4" s="4">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(J2:J121)</f>
+        <v>0.18096551724137933</v>
+      </c>
+      <c r="P4">
+        <f>_xlfn.STDEV.S(J2:J30)/SQRT(COUNT(J2:J30))</f>
+        <v>6.1601137869785761E-3</v>
+      </c>
+      <c r="Q4">
+        <f>_xlfn.STDEV.S(J2:J121)</f>
+        <v>3.3173227973581083E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>0.45500000000000002</v>
       </c>
@@ -10419,8 +13484,23 @@
       <c r="L5" s="4">
         <v>0.192</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(K2:K121)</f>
+        <v>0.17365517241379305</v>
+      </c>
+      <c r="P5">
+        <f>_xlfn.STDEV.S(K2:K30)/SQRT(COUNT(K2:K30))</f>
+        <v>1.1024968959002505E-2</v>
+      </c>
+      <c r="Q5">
+        <f>_xlfn.STDEV.S(K2:K121)</f>
+        <v>5.9371274837770618E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>0.51400000000000001</v>
       </c>
@@ -10457,8 +13537,23 @@
       <c r="L6" s="4">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(L2:L121)</f>
+        <v>0.20296551724137932</v>
+      </c>
+      <c r="P6">
+        <f>_xlfn.STDEV.S(L2:L30)/SQRT(COUNT(L2:L30))</f>
+        <v>6.5257132102941083E-3</v>
+      </c>
+      <c r="Q6">
+        <f>_xlfn.STDEV.S(L2:L121)</f>
+        <v>3.5142041121528557E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>0.55900000000000005</v>
       </c>
@@ -10496,7 +13591,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>0.51800000000000002</v>
       </c>
@@ -10533,8 +13628,20 @@
       <c r="L8" s="4">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>0.48599999999999999</v>
       </c>
@@ -10571,8 +13678,23 @@
       <c r="L9" s="4">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(E2:E121)</f>
+        <v>0.52034482758620704</v>
+      </c>
+      <c r="P9">
+        <f>_xlfn.STDEV.S(E2:E30)/SQRT(COUNT(E2:E30))</f>
+        <v>3.1040426360244865E-2</v>
+      </c>
+      <c r="Q9">
+        <f>_xlfn.STDEV.S(E2:E121)</f>
+        <v>0.1671578116336408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
@@ -10609,8 +13731,23 @@
       <c r="L10" s="4">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(F2:F121)</f>
+        <v>0.52203448275862063</v>
+      </c>
+      <c r="P10">
+        <f>_xlfn.STDEV.S(F2:F30)/SQRT(COUNT(F2:F30))</f>
+        <v>3.2221465887471538E-2</v>
+      </c>
+      <c r="Q10">
+        <f>_xlfn.STDEV.S(F2:F121)</f>
+        <v>0.17351790413149668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>0.55800000000000005</v>
       </c>
@@ -10647,8 +13784,23 @@
       <c r="L11" s="4">
         <v>0.219</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11">
+        <f>AVERAGE(G2:G121)</f>
+        <v>0.47920689655172416</v>
+      </c>
+      <c r="P11">
+        <f>_xlfn.STDEV.S(G2:G30)/SQRT(COUNT(G2:G30))</f>
+        <v>4.0233198901750838E-2</v>
+      </c>
+      <c r="Q11">
+        <f>_xlfn.STDEV.S(G2:G121)</f>
+        <v>0.21666240680415116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>0.52100000000000002</v>
       </c>
@@ -10685,8 +13837,23 @@
       <c r="L12" s="4">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12">
+        <f>AVERAGE(H2:H121)</f>
+        <v>0.50786206896551733</v>
+      </c>
+      <c r="P12">
+        <f>_xlfn.STDEV.S(H2:H30)/SQRT(COUNT(H2:H30))</f>
+        <v>2.97944817574811E-2</v>
+      </c>
+      <c r="Q12">
+        <f>_xlfn.STDEV.S(H2:H121)</f>
+        <v>0.1604481946071982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>0.51400000000000001</v>
       </c>
@@ -10724,7 +13891,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>0.51400000000000001</v>
       </c>
@@ -10761,8 +13928,20 @@
       <c r="L14" s="4">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>0.53200000000000003</v>
       </c>
@@ -10799,8 +13978,23 @@
       <c r="L15" s="4">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(A2:A121)</f>
+        <v>0.50758620689655176</v>
+      </c>
+      <c r="P15">
+        <f>_xlfn.STDEV.S(A2:A30)/SQRT(COUNT(A2:A30))</f>
+        <v>9.9501859330325942E-3</v>
+      </c>
+      <c r="Q15">
+        <f>_xlfn.STDEV.S(A2:A121)</f>
+        <v>5.3583391111011923E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>0.51700000000000002</v>
       </c>
@@ -10837,8 +14031,23 @@
       <c r="L16" s="4">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(B2:B121)</f>
+        <v>0.49079310344827587</v>
+      </c>
+      <c r="P16">
+        <f>_xlfn.STDEV.S(B2:B30)/SQRT(COUNT(B2:B30))</f>
+        <v>1.2084001892983013E-2</v>
+      </c>
+      <c r="Q16">
+        <f>_xlfn.STDEV.S(B2:B121)</f>
+        <v>6.5074341723438844E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>0.37</v>
       </c>
@@ -10875,8 +14084,23 @@
       <c r="L17" s="4">
         <v>0.21099999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(C2:C121)</f>
+        <v>0.46789655172413797</v>
+      </c>
+      <c r="P17">
+        <f>_xlfn.STDEV.S(C2:C30)/SQRT(COUNT(C2:C30))</f>
+        <v>2.7132876138655667E-2</v>
+      </c>
+      <c r="Q17">
+        <f>_xlfn.STDEV.S(C2:C121)</f>
+        <v>0.14611500969822802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>0.58199999999999996</v>
       </c>
@@ -10913,8 +14137,23 @@
       <c r="L18" s="4">
         <v>0.23100000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(D2:D121)</f>
+        <v>0.5034827586206897</v>
+      </c>
+      <c r="P18">
+        <f>_xlfn.STDEV.S(D2:D30)/SQRT(COUNT(D2:D30))</f>
+        <v>1.2344363174796286E-2</v>
+      </c>
+      <c r="Q18">
+        <f>_xlfn.STDEV.S(D2:D121)</f>
+        <v>6.6476430135400111E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>0.5</v>
       </c>
@@ -10952,7 +14191,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>0.36799999999999999</v>
       </c>
@@ -10990,7 +14229,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>0.54800000000000004</v>
       </c>
@@ -11028,7 +14267,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>0.51400000000000001</v>
       </c>
@@ -11066,7 +14305,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>0.58299999999999996</v>
       </c>
@@ -11104,7 +14343,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>0.49399999999999999</v>
       </c>
@@ -11142,7 +14381,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>0.49399999999999999</v>
       </c>
@@ -11180,7 +14419,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>0.49199999999999999</v>
       </c>
@@ -11218,7 +14457,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>0.5</v>
       </c>
@@ -11256,7 +14495,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>0.41199999999999998</v>
       </c>
@@ -11294,7 +14533,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>0.48799999999999999</v>
       </c>
@@ -11332,7 +14571,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>0.57599999999999996</v>
       </c>
@@ -11372,11 +14611,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11814,1100 +15054,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="4">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2">
-        <f>COUNTIF(A2:A37,"m")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3">
-        <f>COUNTIF(A2:A37,"f")</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="4">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="4">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="4">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="5">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="4">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="4">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="4">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6">
-        <v>18</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="4">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="6">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="5">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="4">
-        <v>39</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="4">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4">
-        <v>41</v>
-      </c>
-      <c r="C27" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="4">
-        <v>54</v>
-      </c>
-      <c r="C28" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="4">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="4">
-        <v>52</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="4">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="6">
-        <v>57</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="4">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6">
-        <v>25</v>
-      </c>
-      <c r="C34" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="4">
-        <v>46</v>
-      </c>
-      <c r="C35" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="4">
-        <v>19</v>
-      </c>
-      <c r="C36" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="4">
-        <v>21</v>
-      </c>
-      <c r="C37" s="4">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="B2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="B3">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3">
-        <f>AVERAGE(A2:A37)</f>
-        <v>0.47455555555555545</v>
-      </c>
-      <c r="I3">
-        <f>_xlfn.STDEV.S(A2:A121)/SQRT(COUNT(A2:A121))</f>
-        <v>3.7836226959710735E-2</v>
-      </c>
-      <c r="J3">
-        <f>_xlfn.STDEV.S(A2:A121)</f>
-        <v>0.22701736175826442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="B4">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4">
-        <f>AVERAGE(B2:B121)</f>
-        <v>0.52541666666666675</v>
-      </c>
-      <c r="I4">
-        <f>_xlfn.STDEV.S(B2:B121)/SQRT(COUNT(B2:B121))</f>
-        <v>3.7836498189421475E-2</v>
-      </c>
-      <c r="J4">
-        <f>_xlfn.STDEV.S(B2:B121)</f>
-        <v>0.22701898913652885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="B5">
-        <v>0.55400000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="B7">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.438</v>
-      </c>
-      <c r="B8">
-        <v>0.56200000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>0.433</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.56699999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="B10">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="B11">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="B12">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.442</v>
-      </c>
-      <c r="B13">
-        <v>0.55800000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="B14">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.371</v>
-      </c>
-      <c r="B15">
-        <v>0.629</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.51200000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="B17">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="B18">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="B19">
-        <v>0.61699999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="B21">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0.9</v>
-      </c>
-      <c r="B22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="B23">
-        <v>0.60399999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="B25">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="B26">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="B27">
-        <v>0.52100000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="B28">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="B29">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="B30">
-        <v>0.60799999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="B31">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.45</v>
-      </c>
-      <c r="B33">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="B35">
-        <v>0.95399999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="B36">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="B37">
-        <v>0.61699999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="B2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="B3">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3">
-        <f>AVERAGE(A2:A30)</f>
-        <v>0.48103448275862076</v>
-      </c>
-      <c r="I3">
-        <f>_xlfn.STDEV.S(A2:A114)/SQRT(COUNT(A2:A114))</f>
-        <v>4.2202318322803752E-2</v>
-      </c>
-      <c r="J3">
-        <f>_xlfn.STDEV.S(A2:A114)</f>
-        <v>0.22726643941145042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="B4">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4">
-        <f>AVERAGE(B2:B114)</f>
-        <v>0.51896551724137929</v>
-      </c>
-      <c r="I4">
-        <f>_xlfn.STDEV.S(B2:B114)/SQRT(COUNT(B2:B114))</f>
-        <v>4.2202318322803856E-2</v>
-      </c>
-      <c r="J4">
-        <f>_xlfn.STDEV.S(B2:B114)</f>
-        <v>0.22726643941145097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="B5">
-        <v>0.55400000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="B6">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.438</v>
-      </c>
-      <c r="B7">
-        <v>0.56200000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="B8">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="B9">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="B10">
-        <v>0.51700000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0.442</v>
-      </c>
-      <c r="B11">
-        <v>0.55800000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="B12">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.371</v>
-      </c>
-      <c r="B13">
-        <v>0.629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="B14">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="B15">
-        <v>0.70399999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="B16">
-        <v>0.61699999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="B17">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0.9</v>
-      </c>
-      <c r="B18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="B19">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="B20">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="B21">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="B22">
-        <v>0.52100000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="B23">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="B24">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="B25">
-        <v>0.60799999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="B26">
-        <v>0.54200000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.45</v>
-      </c>
-      <c r="B27">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="B28">
-        <v>0.95399999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="B29">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="B30">
-        <v>0.61699999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
